--- a/00_assets/data/url-logos.xlsx
+++ b/00_assets/data/url-logos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E808B97B-2516-499A-8DD2-2C1784ABDAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5441369D-90BC-42B0-AFF2-92518255BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>logo</t>
   </si>
@@ -39,10 +39,16 @@
     <t>url</t>
   </si>
   <si>
-    <t>logo-centro-secano-ucm</t>
-  </si>
-  <si>
-    <t>https://portal.ucm.cl/centro-del-secano</t>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>logo-bosque-digital</t>
+  </si>
+  <si>
+    <t>https://mastergeoforest.es/bosque-digital/</t>
+  </si>
+  <si>
+    <t>organiza</t>
   </si>
   <si>
     <t>logo-cieam</t>
@@ -51,28 +57,19 @@
     <t>https://portal.ucm.cl/cieam</t>
   </si>
   <si>
+    <t>patrocina</t>
+  </si>
+  <si>
     <t>logo-ucm</t>
   </si>
   <si>
     <t>https://portal.ucm.cl/</t>
   </si>
   <si>
-    <t>logo-ctfc</t>
-  </si>
-  <si>
-    <t>https://www.ctfc.cat/?lang=es</t>
-  </si>
-  <si>
     <t>logo-geoforest</t>
   </si>
   <si>
     <t>https://mastergeoforest.es/</t>
-  </si>
-  <si>
-    <t>logo-gesplan</t>
-  </si>
-  <si>
-    <t>https://www.gesplan.es/</t>
   </si>
   <si>
     <t>logo-luke</t>
@@ -479,117 +476,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EAC2F686-354D-44E6-96EC-B18FCEF3C154}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B71E9972-9F1D-432D-AE28-B4111146BD37}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{EB2BFC82-8304-4BCE-99AE-6D387CDD3019}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{793ED489-605E-404C-B534-E75DAB22B46E}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{6D7E3A2E-DF31-430B-89AC-2296C630AF18}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{33CE5C50-6C6F-4481-95B9-601E416A110B}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{186B1C96-C9C2-479B-A770-6635F1339AA5}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{C7CAF0A6-2776-470E-9619-9DFE89C3E4BA}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{8E12B50A-87ED-4CA6-BBFD-88561DAF97B4}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{88A5E934-E2CB-4070-BF2E-64C5AE7C4C34}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B71E9972-9F1D-432D-AE28-B4111146BD37}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{EB2BFC82-8304-4BCE-99AE-6D387CDD3019}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6D7E3A2E-DF31-430B-89AC-2296C630AF18}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{186B1C96-C9C2-479B-A770-6635F1339AA5}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{C7CAF0A6-2776-470E-9619-9DFE89C3E4BA}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{8E12B50A-87ED-4CA6-BBFD-88561DAF97B4}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{88A5E934-E2CB-4070-BF2E-64C5AE7C4C34}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{D2F71E7B-F017-4A6F-B548-D8963111AFC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
